--- a/food tracker test.xlsx
+++ b/food tracker test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingheren/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingheren/Desktop/601/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -148,18 +148,12 @@
     <t>TU 05</t>
   </si>
   <si>
-    <t>platform compatibility testing</t>
-  </si>
-  <si>
     <t xml:space="preserve">compatibility </t>
   </si>
   <si>
     <t xml:space="preserve">Iphone X, 8, 8 Plus </t>
   </si>
   <si>
-    <t>install app to different version of Iphone</t>
-  </si>
-  <si>
     <t>critical</t>
   </si>
   <si>
@@ -179,13 +173,19 @@
   </si>
   <si>
     <t>TU 06</t>
+  </si>
+  <si>
+    <t>platform compatibility testing, graph flexibility</t>
+  </si>
+  <si>
+    <t>1. install app to different version of Iphone 2.check UI and function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,6 +214,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -532,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,7 +678,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -708,7 +714,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -744,7 +750,7 @@
         <v>21</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -780,7 +786,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -797,17 +803,17 @@
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>38</v>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>20</v>
@@ -816,34 +822,34 @@
         <v>21</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>20</v>
@@ -852,7 +858,7 @@
         <v>21</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -867,31 +873,30 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
@@ -908,31 +913,34 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>